--- a/REGULAR/LERIO, ROSEMARIE.xlsx
+++ b/REGULAR/LERIO, ROSEMARIE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E712E20A-429B-445E-91C4-B6F1C046F58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D8DEA2-65DC-4EFB-8C51-03E04140F97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="189">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3384,9 +3384,9 @@
   <dimension ref="A2:N387"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A366" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A373" activePane="bottomLeft"/>
       <selection activeCell="M9" sqref="M9"/>
-      <selection pane="bottomLeft" activeCell="E375" sqref="E375"/>
+      <selection pane="bottomLeft" activeCell="K379" sqref="K379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3549,7 +3549,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>252.93299999999999</v>
+        <v>254.43299999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3559,7 +3559,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>458.75</v>
+        <v>461.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11147,7 +11147,7 @@
       <c r="K361" s="20"/>
       <c r="N361" s="43">
         <f>SUM(E9,I9)</f>
-        <v>711.68299999999999</v>
+        <v>715.68299999999999</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.3">
@@ -11477,15 +11477,19 @@
       <c r="K376" s="20"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A377" s="40"/>
+      <c r="A377" s="40">
+        <v>44958</v>
+      </c>
       <c r="B377" s="20"/>
-      <c r="C377" s="13"/>
+      <c r="C377" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D377" s="39"/>
       <c r="E377" s="9"/>
       <c r="F377" s="20"/>
-      <c r="G377" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G377" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H377" s="39"/>
       <c r="I377" s="9"/>
@@ -11493,23 +11497,35 @@
       <c r="K377" s="20"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A378" s="40"/>
-      <c r="B378" s="20"/>
-      <c r="C378" s="13"/>
-      <c r="D378" s="39"/>
+      <c r="A378" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B378" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C378" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D378" s="39">
+        <v>1</v>
+      </c>
       <c r="E378" s="9"/>
       <c r="F378" s="20"/>
-      <c r="G378" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G378" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H378" s="39"/>
       <c r="I378" s="9"/>
       <c r="J378" s="11"/>
-      <c r="K378" s="20"/>
+      <c r="K378" s="48">
+        <v>45015</v>
+      </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A379" s="40"/>
+      <c r="A379" s="40">
+        <v>45017</v>
+      </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
       <c r="D379" s="39"/>
@@ -11525,7 +11541,9 @@
       <c r="K379" s="20"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A380" s="40"/>
+      <c r="A380" s="40">
+        <v>45047</v>
+      </c>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
       <c r="D380" s="39"/>
@@ -11541,7 +11559,9 @@
       <c r="K380" s="20"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A381" s="40"/>
+      <c r="A381" s="40">
+        <v>45078</v>
+      </c>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
       <c r="D381" s="39"/>
@@ -11557,7 +11577,9 @@
       <c r="K381" s="20"/>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A382" s="40"/>
+      <c r="A382" s="40">
+        <v>45108</v>
+      </c>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
       <c r="D382" s="39"/>
@@ -11573,7 +11595,9 @@
       <c r="K382" s="20"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A383" s="40"/>
+      <c r="A383" s="40">
+        <v>45139</v>
+      </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
       <c r="D383" s="39"/>
@@ -11589,7 +11613,9 @@
       <c r="K383" s="20"/>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A384" s="40"/>
+      <c r="A384" s="40">
+        <v>45170</v>
+      </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
       <c r="D384" s="39"/>
@@ -11605,7 +11631,9 @@
       <c r="K384" s="20"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A385" s="40"/>
+      <c r="A385" s="40">
+        <v>45200</v>
+      </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
       <c r="D385" s="39"/>

--- a/REGULAR/LERIO, ROSEMARIE.xlsx
+++ b/REGULAR/LERIO, ROSEMARIE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D8DEA2-65DC-4EFB-8C51-03E04140F97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="190">
   <si>
     <t>PERIOD</t>
   </si>
@@ -602,12 +601,15 @@
   </si>
   <si>
     <t>11/11,17/2022</t>
+  </si>
+  <si>
+    <t>5/28,30/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1035,7 +1037,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1110,7 +1111,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1178,7 +1178,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1420,7 +1419,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1468,7 +1466,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1509,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1573,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1633,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1699,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,7 +1762,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,7 +1860,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +1919,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,7 +1984,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,7 +2027,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,7 +2102,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,7 +2288,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,7 +2354,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +2412,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2478,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2534,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2611,7 +2609,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2652,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2720,7 +2718,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2776,7 +2774,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2874,7 +2872,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2937,7 +2935,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3003,25 +3001,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K387" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K387" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3033,13 +3031,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CAFD6A5-0771-4D4F-B29C-8C8A4BD59DAD}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{D6E424DD-7C72-4461-BBE2-CD59B37123B3}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{20858E5D-6D7D-4382-8DBC-1FD4091C418E}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3048,14 +3046,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D76F81F-2FB2-4658-9985-FB0CE23F1771}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{40B8C089-638A-4D13-9FCC-740888AE7704}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C3A40ACA-C07A-4798-82C2-714BDF47B4DB}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3359,7 +3357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3369,7 +3367,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3377,34 +3375,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:N387"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A373" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A373" activePane="bottomLeft"/>
       <selection activeCell="M9" sqref="M9"/>
-      <selection pane="bottomLeft" activeCell="K379" sqref="K379"/>
+      <selection pane="bottomLeft" activeCell="D381" sqref="D381"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3425,7 +3423,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3445,7 +3443,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3467,7 +3465,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3475,7 +3473,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3488,7 +3486,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -3505,7 +3503,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3540,7 +3538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3549,7 +3547,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>254.43299999999999</v>
+        <v>253.68299999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3559,12 +3557,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>461.25</v>
+        <v>462.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
@@ -3586,7 +3584,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35796</v>
       </c>
@@ -3606,7 +3604,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35827</v>
       </c>
@@ -3626,7 +3624,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35855</v>
       </c>
@@ -3650,7 +3648,7 @@
         <v>35871</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35886</v>
       </c>
@@ -3670,7 +3668,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35916</v>
       </c>
@@ -3694,7 +3692,7 @@
         <v>35922</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35947</v>
       </c>
@@ -3714,7 +3712,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>35977</v>
       </c>
@@ -3734,7 +3732,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36008</v>
       </c>
@@ -3754,7 +3752,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>36039</v>
       </c>
@@ -3774,7 +3772,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>36069</v>
       </c>
@@ -3794,7 +3792,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36100</v>
       </c>
@@ -3814,7 +3812,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>36130</v>
       </c>
@@ -3838,7 +3836,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>50</v>
@@ -3858,7 +3856,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>51</v>
       </c>
@@ -3876,7 +3874,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36161</v>
       </c>
@@ -3896,7 +3894,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36192</v>
       </c>
@@ -3916,7 +3914,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36220</v>
       </c>
@@ -3938,7 +3936,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36251</v>
       </c>
@@ -3958,7 +3956,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36281</v>
       </c>
@@ -3984,7 +3982,7 @@
         <v>36288</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>49</v>
@@ -4006,7 +4004,7 @@
         <v>36308</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36312</v>
       </c>
@@ -4026,7 +4024,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36342</v>
       </c>
@@ -4046,7 +4044,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36373</v>
       </c>
@@ -4072,7 +4070,7 @@
         <v>36378</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>54</v>
@@ -4092,7 +4090,7 @@
         <v>36402</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36404</v>
       </c>
@@ -4112,7 +4110,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36434</v>
       </c>
@@ -4132,7 +4130,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36465</v>
       </c>
@@ -4152,7 +4150,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36495</v>
       </c>
@@ -4176,7 +4174,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
         <v>56</v>
       </c>
@@ -4194,7 +4192,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36526</v>
       </c>
@@ -4214,7 +4212,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36557</v>
       </c>
@@ -4234,7 +4232,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36586</v>
       </c>
@@ -4260,7 +4258,7 @@
         <v>36602</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36617</v>
       </c>
@@ -4284,7 +4282,7 @@
         <v>36635</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36647</v>
       </c>
@@ -4310,7 +4308,7 @@
         <v>36672</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36678</v>
       </c>
@@ -4334,7 +4332,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36708</v>
       </c>
@@ -4354,7 +4352,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36739</v>
       </c>
@@ -4374,7 +4372,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36770</v>
       </c>
@@ -4394,7 +4392,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36800</v>
       </c>
@@ -4414,7 +4412,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36831</v>
       </c>
@@ -4440,7 +4438,7 @@
         <v>36836</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>36861</v>
       </c>
@@ -4466,7 +4464,7 @@
         <v>36865</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>59</v>
@@ -4486,7 +4484,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="48"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>60</v>
       </c>
@@ -4504,7 +4502,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="48"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36892</v>
       </c>
@@ -4524,7 +4522,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>36923</v>
       </c>
@@ -4544,7 +4542,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36951</v>
       </c>
@@ -4570,7 +4568,7 @@
         <v>36952</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>49</v>
@@ -4592,7 +4590,7 @@
         <v>36973</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>36982</v>
       </c>
@@ -4612,7 +4610,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>37012</v>
       </c>
@@ -4632,7 +4630,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37043</v>
       </c>
@@ -4652,7 +4650,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>37073</v>
       </c>
@@ -4672,7 +4670,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>37104</v>
       </c>
@@ -4698,7 +4696,7 @@
         <v>37133</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>37135</v>
       </c>
@@ -4724,7 +4722,7 @@
         <v>37159</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37165</v>
       </c>
@@ -4750,7 +4748,7 @@
         <v>37188</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>37196</v>
       </c>
@@ -4770,7 +4768,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37226</v>
       </c>
@@ -4794,7 +4792,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
         <v>61</v>
       </c>
@@ -4812,7 +4810,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37257</v>
       </c>
@@ -4832,7 +4830,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37288</v>
       </c>
@@ -4852,7 +4850,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>37316</v>
       </c>
@@ -4876,7 +4874,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37347</v>
       </c>
@@ -4902,7 +4900,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37377</v>
       </c>
@@ -4922,7 +4920,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>37408</v>
       </c>
@@ -4946,7 +4944,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37438</v>
       </c>
@@ -4970,7 +4968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37469</v>
       </c>
@@ -4990,7 +4988,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37500</v>
       </c>
@@ -5010,7 +5008,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37530</v>
       </c>
@@ -5030,7 +5028,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37561</v>
       </c>
@@ -5056,7 +5054,7 @@
         <v>37580</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37591</v>
       </c>
@@ -5080,7 +5078,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="47" t="s">
         <v>68</v>
       </c>
@@ -5098,7 +5096,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37622</v>
       </c>
@@ -5118,7 +5116,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37653</v>
       </c>
@@ -5142,7 +5140,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37681</v>
       </c>
@@ -5166,7 +5164,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37712</v>
       </c>
@@ -5186,7 +5184,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37742</v>
       </c>
@@ -5212,7 +5210,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>49</v>
@@ -5234,7 +5232,7 @@
         <v>37771</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37773</v>
       </c>
@@ -5258,7 +5256,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37803</v>
       </c>
@@ -5284,7 +5282,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>37834</v>
       </c>
@@ -5304,7 +5302,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37865</v>
       </c>
@@ -5324,7 +5322,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37895</v>
       </c>
@@ -5344,7 +5342,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37926</v>
       </c>
@@ -5364,7 +5362,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37956</v>
       </c>
@@ -5390,7 +5388,7 @@
         <v>37965</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="47" t="s">
         <v>76</v>
       </c>
@@ -5408,7 +5406,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="48"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37987</v>
       </c>
@@ -5432,7 +5430,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>38018</v>
       </c>
@@ -5456,7 +5454,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>38047</v>
       </c>
@@ -5480,7 +5478,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>38078</v>
       </c>
@@ -5504,7 +5502,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>38108</v>
       </c>
@@ -5528,7 +5526,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>38139</v>
       </c>
@@ -5552,7 +5550,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>38169</v>
       </c>
@@ -5576,7 +5574,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>38200</v>
       </c>
@@ -5600,7 +5598,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>38231</v>
       </c>
@@ -5624,7 +5622,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>38261</v>
       </c>
@@ -5650,7 +5648,7 @@
         <v>38273</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>54</v>
@@ -5670,7 +5668,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>38292</v>
       </c>
@@ -5690,7 +5688,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>38322</v>
       </c>
@@ -5714,7 +5712,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="47" t="s">
         <v>86</v>
       </c>
@@ -5732,7 +5730,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>38353</v>
       </c>
@@ -5756,7 +5754,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>38384</v>
       </c>
@@ -5782,7 +5780,7 @@
         <v>38399</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>78</v>
@@ -5802,7 +5800,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="48"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>38412</v>
       </c>
@@ -5828,7 +5826,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>77</v>
@@ -5848,7 +5846,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>38443</v>
       </c>
@@ -5872,7 +5870,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>38473</v>
       </c>
@@ -5896,7 +5894,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38504</v>
       </c>
@@ -5920,7 +5918,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>81</v>
@@ -5940,7 +5938,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>38534</v>
       </c>
@@ -5964,7 +5962,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38565</v>
       </c>
@@ -5990,7 +5988,7 @@
         <v>38590</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>59</v>
@@ -6012,7 +6010,7 @@
         <v>38593</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>54</v>
@@ -6032,7 +6030,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>83</v>
@@ -6052,7 +6050,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="48"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>38596</v>
       </c>
@@ -6076,7 +6074,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>84</v>
@@ -6096,7 +6094,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38626</v>
       </c>
@@ -6120,7 +6118,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>38657</v>
       </c>
@@ -6140,7 +6138,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>38687</v>
       </c>
@@ -6160,7 +6158,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="47" t="s">
         <v>91</v>
       </c>
@@ -6178,7 +6176,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38718</v>
       </c>
@@ -6198,7 +6196,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38749</v>
       </c>
@@ -6218,7 +6216,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>38777</v>
       </c>
@@ -6242,7 +6240,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>38808</v>
       </c>
@@ -6268,7 +6266,7 @@
         <v>38856</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>38838</v>
       </c>
@@ -6288,7 +6286,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38869</v>
       </c>
@@ -6314,7 +6312,7 @@
         <v>38884</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>38899</v>
       </c>
@@ -6338,7 +6336,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38930</v>
       </c>
@@ -6364,7 +6362,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>38961</v>
       </c>
@@ -6390,7 +6388,7 @@
         <v>38957</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38991</v>
       </c>
@@ -6410,7 +6408,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>39022</v>
       </c>
@@ -6434,7 +6432,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>39052</v>
       </c>
@@ -6454,7 +6452,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="47" t="s">
         <v>96</v>
       </c>
@@ -6472,7 +6470,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>39083</v>
       </c>
@@ -6492,7 +6490,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>39114</v>
       </c>
@@ -6516,7 +6514,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>39142</v>
       </c>
@@ -6542,7 +6540,7 @@
         <v>39171</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>39173</v>
       </c>
@@ -6566,7 +6564,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>39203</v>
       </c>
@@ -6586,7 +6584,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>39234</v>
       </c>
@@ -6606,7 +6604,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>39264</v>
       </c>
@@ -6632,7 +6630,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>39295</v>
       </c>
@@ -6652,7 +6650,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>39326</v>
       </c>
@@ -6678,7 +6676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>39356</v>
       </c>
@@ -6698,7 +6696,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>39387</v>
       </c>
@@ -6718,7 +6716,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>39417</v>
       </c>
@@ -6738,7 +6736,7 @@
       <c r="J153" s="12"/>
       <c r="K153" s="15"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="47" t="s">
         <v>101</v>
       </c>
@@ -6756,7 +6754,7 @@
       <c r="J154" s="12"/>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>39448</v>
       </c>
@@ -6776,7 +6774,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>39479</v>
       </c>
@@ -6796,7 +6794,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>39508</v>
       </c>
@@ -6816,7 +6814,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>39539</v>
       </c>
@@ -6836,7 +6834,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>39569</v>
       </c>
@@ -6856,7 +6854,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>39600</v>
       </c>
@@ -6876,7 +6874,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>39630</v>
       </c>
@@ -6896,7 +6894,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>39661</v>
       </c>
@@ -6916,7 +6914,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>39692</v>
       </c>
@@ -6936,7 +6934,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>39722</v>
       </c>
@@ -6956,7 +6954,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>39753</v>
       </c>
@@ -6976,7 +6974,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>39783</v>
       </c>
@@ -7000,7 +6998,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>103</v>
@@ -7020,7 +7018,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="47" t="s">
         <v>105</v>
       </c>
@@ -7038,7 +7036,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>39814</v>
       </c>
@@ -7058,7 +7056,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>39845</v>
       </c>
@@ -7078,7 +7076,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>39873</v>
       </c>
@@ -7102,7 +7100,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>102</v>
@@ -7122,7 +7120,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>102</v>
@@ -7142,7 +7140,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>102</v>
@@ -7162,7 +7160,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>39904</v>
       </c>
@@ -7182,7 +7180,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>39934</v>
       </c>
@@ -7202,7 +7200,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>39965</v>
       </c>
@@ -7222,7 +7220,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>39995</v>
       </c>
@@ -7242,7 +7240,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>40026</v>
       </c>
@@ -7266,7 +7264,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>40057</v>
       </c>
@@ -7290,7 +7288,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>74</v>
@@ -7312,7 +7310,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>102</v>
@@ -7332,7 +7330,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>40087</v>
       </c>
@@ -7352,7 +7350,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>40118</v>
       </c>
@@ -7372,7 +7370,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>40148</v>
       </c>
@@ -7396,7 +7394,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="47" t="s">
         <v>114</v>
       </c>
@@ -7414,7 +7412,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>40179</v>
       </c>
@@ -7434,7 +7432,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>40210</v>
       </c>
@@ -7454,7 +7452,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>40238</v>
       </c>
@@ -7480,7 +7478,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>54</v>
@@ -7500,7 +7498,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>54</v>
@@ -7520,7 +7518,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>40269</v>
       </c>
@@ -7540,7 +7538,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>40299</v>
       </c>
@@ -7560,7 +7558,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>40330</v>
       </c>
@@ -7584,7 +7582,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>40360</v>
       </c>
@@ -7608,7 +7606,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>119</v>
@@ -7628,7 +7626,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>40391</v>
       </c>
@@ -7648,7 +7646,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>40422</v>
       </c>
@@ -7668,7 +7666,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>40452</v>
       </c>
@@ -7692,7 +7690,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>40483</v>
       </c>
@@ -7712,7 +7710,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>40513</v>
       </c>
@@ -7736,7 +7734,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="47" t="s">
         <v>122</v>
       </c>
@@ -7754,7 +7752,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>40544</v>
       </c>
@@ -7774,7 +7772,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>40575</v>
       </c>
@@ -7798,7 +7796,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>40603</v>
       </c>
@@ -7818,7 +7816,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>40634</v>
       </c>
@@ -7838,7 +7836,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>40664</v>
       </c>
@@ -7858,7 +7856,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>40695</v>
       </c>
@@ -7882,7 +7880,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>40725</v>
       </c>
@@ -7906,7 +7904,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>40756</v>
       </c>
@@ -7930,7 +7928,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>119</v>
@@ -7950,7 +7948,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>102</v>
@@ -7970,7 +7968,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>40787</v>
       </c>
@@ -7990,7 +7988,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>40817</v>
       </c>
@@ -8010,7 +8008,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>40848</v>
       </c>
@@ -8036,7 +8034,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>54</v>
@@ -8056,7 +8054,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>40878</v>
       </c>
@@ -8080,7 +8078,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="47" t="s">
         <v>132</v>
       </c>
@@ -8098,7 +8096,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>40909</v>
       </c>
@@ -8122,7 +8120,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>40940</v>
       </c>
@@ -8142,7 +8140,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>40969</v>
       </c>
@@ -8168,7 +8166,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>119</v>
@@ -8188,7 +8186,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>41000</v>
       </c>
@@ -8208,7 +8206,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>41030</v>
       </c>
@@ -8228,7 +8226,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>41061</v>
       </c>
@@ -8248,7 +8246,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>41091</v>
       </c>
@@ -8272,7 +8270,7 @@
         <v>41113</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>55</v>
@@ -8294,7 +8292,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>54</v>
@@ -8314,7 +8312,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>41122</v>
       </c>
@@ -8334,7 +8332,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>41153</v>
       </c>
@@ -8354,7 +8352,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>41183</v>
       </c>
@@ -8380,7 +8378,7 @@
         <v>41204</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>41214</v>
       </c>
@@ -8400,7 +8398,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>41244</v>
       </c>
@@ -8424,7 +8422,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="47" t="s">
         <v>138</v>
       </c>
@@ -8442,7 +8440,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>41275</v>
       </c>
@@ -8466,7 +8464,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>41306</v>
       </c>
@@ -8492,7 +8490,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>41334</v>
       </c>
@@ -8512,7 +8510,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>41365</v>
       </c>
@@ -8532,7 +8530,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>41395</v>
       </c>
@@ -8558,7 +8556,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>41426</v>
       </c>
@@ -8584,7 +8582,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>41456</v>
       </c>
@@ -8604,7 +8602,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>41487</v>
       </c>
@@ -8630,7 +8628,7 @@
         <v>41516</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>41518</v>
       </c>
@@ -8650,7 +8648,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>41548</v>
       </c>
@@ -8670,7 +8668,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>41579</v>
       </c>
@@ -8696,7 +8694,7 @@
         <v>41592</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>41609</v>
       </c>
@@ -8716,7 +8714,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="47" t="s">
         <v>144</v>
       </c>
@@ -8734,7 +8732,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>41640</v>
       </c>
@@ -8754,7 +8752,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>41671</v>
       </c>
@@ -8774,7 +8772,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>41699</v>
       </c>
@@ -8798,7 +8796,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>41730</v>
       </c>
@@ -8824,7 +8822,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>41760</v>
       </c>
@@ -8850,7 +8848,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>41791</v>
       </c>
@@ -8870,7 +8868,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>41821</v>
       </c>
@@ -8890,7 +8888,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>41852</v>
       </c>
@@ -8910,7 +8908,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>41883</v>
       </c>
@@ -8930,7 +8928,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>41913</v>
       </c>
@@ -8950,7 +8948,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>41944</v>
       </c>
@@ -8970,7 +8968,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>41974</v>
       </c>
@@ -8990,7 +8988,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="47" t="s">
         <v>148</v>
       </c>
@@ -9008,7 +9006,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>42005</v>
       </c>
@@ -9028,7 +9026,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>42036</v>
       </c>
@@ -9048,7 +9046,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>42064</v>
       </c>
@@ -9068,7 +9066,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>42095</v>
       </c>
@@ -9094,7 +9092,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>42125</v>
       </c>
@@ -9114,7 +9112,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>42156</v>
       </c>
@@ -9138,7 +9136,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>42186</v>
       </c>
@@ -9158,7 +9156,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>42217</v>
       </c>
@@ -9184,7 +9182,7 @@
         <v>42230</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>42248</v>
       </c>
@@ -9204,7 +9202,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>42278</v>
       </c>
@@ -9228,7 +9226,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>49</v>
@@ -9250,7 +9248,7 @@
         <v>42293</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>42309</v>
       </c>
@@ -9276,7 +9274,7 @@
         <v>42324</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>42339</v>
       </c>
@@ -9302,7 +9300,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>67</v>
@@ -9322,7 +9320,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="47" t="s">
         <v>152</v>
       </c>
@@ -9340,7 +9338,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>42370</v>
       </c>
@@ -9364,7 +9362,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>42401</v>
       </c>
@@ -9384,7 +9382,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>42430</v>
       </c>
@@ -9404,7 +9402,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>42461</v>
       </c>
@@ -9424,7 +9422,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>42491</v>
       </c>
@@ -9444,7 +9442,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>42522</v>
       </c>
@@ -9470,7 +9468,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>42552</v>
       </c>
@@ -9490,7 +9488,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>42583</v>
       </c>
@@ -9514,7 +9512,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>42614</v>
       </c>
@@ -9534,7 +9532,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>42644</v>
       </c>
@@ -9554,7 +9552,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>42675</v>
       </c>
@@ -9580,7 +9578,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>42705</v>
       </c>
@@ -9600,7 +9598,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="47" t="s">
         <v>160</v>
       </c>
@@ -9618,7 +9616,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>42736</v>
       </c>
@@ -9638,7 +9636,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>42767</v>
       </c>
@@ -9664,7 +9662,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>42795</v>
       </c>
@@ -9688,7 +9686,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>42826</v>
       </c>
@@ -9708,7 +9706,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>42856</v>
       </c>
@@ -9728,7 +9726,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>42887</v>
       </c>
@@ -9748,7 +9746,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>42917</v>
       </c>
@@ -9768,7 +9766,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>42948</v>
       </c>
@@ -9788,7 +9786,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>42979</v>
       </c>
@@ -9812,7 +9810,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>43009</v>
       </c>
@@ -9832,7 +9830,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>43040</v>
       </c>
@@ -9852,7 +9850,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>43070</v>
       </c>
@@ -9876,7 +9874,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>55</v>
@@ -9896,7 +9894,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="47" t="s">
         <v>165</v>
       </c>
@@ -9914,7 +9912,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>43101</v>
       </c>
@@ -9934,7 +9932,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>43132</v>
       </c>
@@ -9954,7 +9952,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>43160</v>
       </c>
@@ -9978,7 +9976,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>62</v>
@@ -10000,7 +9998,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>43191</v>
       </c>
@@ -10020,7 +10018,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>43221</v>
       </c>
@@ -10040,7 +10038,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>43252</v>
       </c>
@@ -10062,7 +10060,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>43282</v>
       </c>
@@ -10082,7 +10080,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>43313</v>
       </c>
@@ -10102,7 +10100,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>43344</v>
       </c>
@@ -10128,7 +10126,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>43374</v>
       </c>
@@ -10148,7 +10146,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>43405</v>
       </c>
@@ -10174,7 +10172,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>49</v>
@@ -10196,7 +10194,7 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>43435</v>
       </c>
@@ -10216,7 +10214,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="47" t="s">
         <v>170</v>
       </c>
@@ -10234,7 +10232,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>43466</v>
       </c>
@@ -10254,7 +10252,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>43497</v>
       </c>
@@ -10274,7 +10272,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>43525</v>
       </c>
@@ -10294,7 +10292,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43556</v>
       </c>
@@ -10314,7 +10312,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43586</v>
       </c>
@@ -10334,7 +10332,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43617</v>
       </c>
@@ -10354,7 +10352,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43647</v>
       </c>
@@ -10380,7 +10378,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>57</v>
@@ -10400,7 +10398,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>54</v>
@@ -10420,7 +10418,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>43678</v>
       </c>
@@ -10440,7 +10438,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>43709</v>
       </c>
@@ -10460,7 +10458,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43739</v>
       </c>
@@ -10480,7 +10478,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43770</v>
       </c>
@@ -10500,7 +10498,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>43800</v>
       </c>
@@ -10524,7 +10522,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="47" t="s">
         <v>174</v>
       </c>
@@ -10542,7 +10540,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>43831</v>
       </c>
@@ -10562,7 +10560,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>43862</v>
       </c>
@@ -10582,7 +10580,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>43891</v>
       </c>
@@ -10602,7 +10600,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>43922</v>
       </c>
@@ -10622,7 +10620,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>43952</v>
       </c>
@@ -10642,7 +10640,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>43983</v>
       </c>
@@ -10662,7 +10660,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>44013</v>
       </c>
@@ -10682,7 +10680,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>44044</v>
       </c>
@@ -10706,7 +10704,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>44075</v>
       </c>
@@ -10726,7 +10724,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>44105</v>
       </c>
@@ -10746,7 +10744,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>44136</v>
       </c>
@@ -10766,7 +10764,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>44166</v>
       </c>
@@ -10790,7 +10788,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="47" t="s">
         <v>176</v>
       </c>
@@ -10808,7 +10806,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>44197</v>
       </c>
@@ -10828,7 +10826,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>44228</v>
       </c>
@@ -10848,7 +10846,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>44256</v>
       </c>
@@ -10868,7 +10866,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>44287</v>
       </c>
@@ -10888,7 +10886,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>44317</v>
       </c>
@@ -10908,7 +10906,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>44348</v>
       </c>
@@ -10928,7 +10926,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>44378</v>
       </c>
@@ -10952,7 +10950,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>44409</v>
       </c>
@@ -10976,7 +10974,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>44440</v>
       </c>
@@ -10996,7 +10994,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44470</v>
       </c>
@@ -11020,7 +11018,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>49</v>
@@ -11042,7 +11040,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>44501</v>
       </c>
@@ -11062,7 +11060,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44531</v>
       </c>
@@ -11088,7 +11086,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>67</v>
@@ -11108,7 +11106,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" s="47" t="s">
         <v>180</v>
       </c>
@@ -11126,7 +11124,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44562</v>
       </c>
@@ -11147,10 +11145,10 @@
       <c r="K361" s="20"/>
       <c r="N361" s="43">
         <f>SUM(E9,I9)</f>
-        <v>715.68299999999999</v>
-      </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
+        <v>716.18299999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44593</v>
       </c>
@@ -11170,7 +11168,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44621</v>
       </c>
@@ -11190,7 +11188,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44652</v>
       </c>
@@ -11214,7 +11212,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>62</v>
@@ -11236,7 +11234,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44682</v>
       </c>
@@ -11256,7 +11254,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44713</v>
       </c>
@@ -11276,7 +11274,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44743</v>
       </c>
@@ -11302,7 +11300,7 @@
         <v>44760</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>44774</v>
       </c>
@@ -11328,7 +11326,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>54</v>
@@ -11348,7 +11346,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44805</v>
       </c>
@@ -11368,7 +11366,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44835</v>
       </c>
@@ -11394,7 +11392,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44866</v>
       </c>
@@ -11418,7 +11416,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>44896</v>
       </c>
@@ -11438,7 +11436,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="47" t="s">
         <v>187</v>
       </c>
@@ -11456,7 +11454,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44927</v>
       </c>
@@ -11476,7 +11474,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>44958</v>
       </c>
@@ -11496,7 +11494,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44986</v>
       </c>
@@ -11522,31 +11520,37 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>45017</v>
       </c>
       <c r="B379" s="20"/>
-      <c r="C379" s="13"/>
+      <c r="C379" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D379" s="39"/>
       <c r="E379" s="9"/>
       <c r="F379" s="20"/>
-      <c r="G379" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G379" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H379" s="39"/>
       <c r="I379" s="9"/>
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>45047</v>
       </c>
-      <c r="B380" s="20"/>
+      <c r="B380" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C380" s="13"/>
-      <c r="D380" s="39"/>
+      <c r="D380" s="39">
+        <v>2</v>
+      </c>
       <c r="E380" s="9"/>
       <c r="F380" s="20"/>
       <c r="G380" s="13" t="str">
@@ -11556,9 +11560,11 @@
       <c r="H380" s="39"/>
       <c r="I380" s="9"/>
       <c r="J380" s="11"/>
-      <c r="K380" s="20"/>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K380" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>45078</v>
       </c>
@@ -11576,7 +11582,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>45108</v>
       </c>
@@ -11594,7 +11600,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>45139</v>
       </c>
@@ -11612,7 +11618,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>45170</v>
       </c>
@@ -11630,7 +11636,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>45200</v>
       </c>
@@ -11648,7 +11654,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -11664,7 +11670,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -11695,10 +11701,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11721,7 +11727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11729,21 +11735,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -11756,7 +11762,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11785,7 +11791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>31.25</v>
       </c>
@@ -11813,17 +11819,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11844,7 +11850,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11871,7 +11877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11897,7 +11903,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11923,7 +11929,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11949,7 +11955,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11975,7 +11981,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12001,7 +12007,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12027,7 +12033,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12053,7 +12059,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12073,7 +12079,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12093,7 +12099,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12113,7 +12119,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12134,7 +12140,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12155,7 +12161,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12176,7 +12182,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12197,7 +12203,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12218,7 +12224,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12239,7 +12245,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12260,7 +12266,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12281,7 +12287,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12302,7 +12308,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12323,7 +12329,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12344,7 +12350,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12365,7 +12371,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12386,7 +12392,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12407,7 +12413,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12428,7 +12434,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12449,7 +12455,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12470,7 +12476,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12491,7 +12497,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12512,7 +12518,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12533,7 +12539,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12542,7 +12548,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12551,7 +12557,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12560,7 +12566,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12569,7 +12575,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12578,7 +12584,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12587,7 +12593,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12596,7 +12602,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12605,7 +12611,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12614,7 +12620,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12623,7 +12629,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12632,7 +12638,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12641,7 +12647,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12650,7 +12656,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12659,7 +12665,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12668,7 +12674,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12677,7 +12683,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12686,7 +12692,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12695,7 +12701,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12704,7 +12710,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12713,7 +12719,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12722,7 +12728,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12731,7 +12737,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12740,7 +12746,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12749,7 +12755,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12758,7 +12764,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12767,7 +12773,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12776,7 +12782,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12785,7 +12791,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12794,7 +12800,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/LERIO, ROSEMARIE.xlsx
+++ b/REGULAR/LERIO, ROSEMARIE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEFA5D3-F236-4D8D-AF8C-8640404819F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="24" yWindow="648" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="191">
   <si>
     <t>PERIOD</t>
   </si>
@@ -604,12 +605,15 @@
   </si>
   <si>
     <t>5/28,30/2023</t>
+  </si>
+  <si>
+    <t>6/29,30/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1466,7 +1470,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1513,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,7 +1577,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1637,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1699,7 +1703,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1762,7 +1766,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1864,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +1923,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,7 +1988,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,7 +2031,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2106,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2292,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2354,7 +2358,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2416,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2478,7 +2482,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2534,7 +2538,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2613,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2656,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2718,7 +2722,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2774,7 +2778,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2872,7 +2876,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2935,7 +2939,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2984,7 +2988,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3001,25 +3005,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K387" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K387" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3031,13 +3035,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3046,14 +3050,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3357,7 +3361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3367,7 +3371,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3375,34 +3379,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:N387"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A373" activePane="bottomLeft"/>
-      <selection activeCell="M9" sqref="M9"/>
-      <selection pane="bottomLeft" activeCell="D381" sqref="D381"/>
+      <pane ySplit="3576" topLeftCell="A376" activePane="bottomLeft"/>
+      <selection activeCell="P8" sqref="P8:Q8"/>
+      <selection pane="bottomLeft" activeCell="E384" sqref="E384"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3423,7 +3427,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3443,7 +3447,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3465,7 +3469,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3473,7 +3477,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3486,7 +3490,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -3503,7 +3507,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3538,7 +3542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3547,7 +3551,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>253.68299999999999</v>
+        <v>252.93299999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3557,12 +3561,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>462.5</v>
+        <v>463.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
@@ -3584,7 +3588,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35796</v>
       </c>
@@ -3604,7 +3608,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35827</v>
       </c>
@@ -3624,7 +3628,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35855</v>
       </c>
@@ -3648,7 +3652,7 @@
         <v>35871</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>35886</v>
       </c>
@@ -3668,7 +3672,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>35916</v>
       </c>
@@ -3692,7 +3696,7 @@
         <v>35922</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>35947</v>
       </c>
@@ -3712,7 +3716,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>35977</v>
       </c>
@@ -3732,7 +3736,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>36008</v>
       </c>
@@ -3752,7 +3756,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>36039</v>
       </c>
@@ -3772,7 +3776,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>36069</v>
       </c>
@@ -3792,7 +3796,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>36100</v>
       </c>
@@ -3812,7 +3816,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>36130</v>
       </c>
@@ -3836,7 +3840,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>50</v>
@@ -3856,7 +3860,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
         <v>51</v>
       </c>
@@ -3874,7 +3878,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>36161</v>
       </c>
@@ -3894,7 +3898,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36192</v>
       </c>
@@ -3914,7 +3918,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>36220</v>
       </c>
@@ -3936,7 +3940,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>36251</v>
       </c>
@@ -3956,7 +3960,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36281</v>
       </c>
@@ -3982,7 +3986,7 @@
         <v>36288</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>49</v>
@@ -4004,7 +4008,7 @@
         <v>36308</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>36312</v>
       </c>
@@ -4024,7 +4028,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36342</v>
       </c>
@@ -4044,7 +4048,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>36373</v>
       </c>
@@ -4070,7 +4074,7 @@
         <v>36378</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>54</v>
@@ -4090,7 +4094,7 @@
         <v>36402</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36404</v>
       </c>
@@ -4110,7 +4114,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>36434</v>
       </c>
@@ -4130,7 +4134,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>36465</v>
       </c>
@@ -4150,7 +4154,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>36495</v>
       </c>
@@ -4174,7 +4178,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>56</v>
       </c>
@@ -4192,7 +4196,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>36526</v>
       </c>
@@ -4212,7 +4216,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>36557</v>
       </c>
@@ -4232,7 +4236,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>36586</v>
       </c>
@@ -4258,7 +4262,7 @@
         <v>36602</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>36617</v>
       </c>
@@ -4282,7 +4286,7 @@
         <v>36635</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>36647</v>
       </c>
@@ -4308,7 +4312,7 @@
         <v>36672</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>36678</v>
       </c>
@@ -4332,7 +4336,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>36708</v>
       </c>
@@ -4352,7 +4356,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>36739</v>
       </c>
@@ -4372,7 +4376,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>36770</v>
       </c>
@@ -4392,7 +4396,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>36800</v>
       </c>
@@ -4412,7 +4416,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>36831</v>
       </c>
@@ -4438,7 +4442,7 @@
         <v>36836</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>36861</v>
       </c>
@@ -4464,7 +4468,7 @@
         <v>36865</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>59</v>
@@ -4484,7 +4488,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="48"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>60</v>
       </c>
@@ -4502,7 +4506,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="48"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>36892</v>
       </c>
@@ -4522,7 +4526,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>36923</v>
       </c>
@@ -4542,7 +4546,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>36951</v>
       </c>
@@ -4568,7 +4572,7 @@
         <v>36952</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>49</v>
@@ -4590,7 +4594,7 @@
         <v>36973</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>36982</v>
       </c>
@@ -4610,7 +4614,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>37012</v>
       </c>
@@ -4630,7 +4634,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>37043</v>
       </c>
@@ -4650,7 +4654,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>37073</v>
       </c>
@@ -4670,7 +4674,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>37104</v>
       </c>
@@ -4696,7 +4700,7 @@
         <v>37133</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>37135</v>
       </c>
@@ -4722,7 +4726,7 @@
         <v>37159</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>37165</v>
       </c>
@@ -4748,7 +4752,7 @@
         <v>37188</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>37196</v>
       </c>
@@ -4768,7 +4772,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>37226</v>
       </c>
@@ -4792,7 +4796,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="47" t="s">
         <v>61</v>
       </c>
@@ -4810,7 +4814,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>37257</v>
       </c>
@@ -4830,7 +4834,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>37288</v>
       </c>
@@ -4850,7 +4854,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>37316</v>
       </c>
@@ -4874,7 +4878,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>37347</v>
       </c>
@@ -4900,7 +4904,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>37377</v>
       </c>
@@ -4920,7 +4924,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>37408</v>
       </c>
@@ -4944,7 +4948,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>37438</v>
       </c>
@@ -4968,7 +4972,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>37469</v>
       </c>
@@ -4988,7 +4992,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>37500</v>
       </c>
@@ -5008,7 +5012,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>37530</v>
       </c>
@@ -5028,7 +5032,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>37561</v>
       </c>
@@ -5054,7 +5058,7 @@
         <v>37580</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>37591</v>
       </c>
@@ -5078,7 +5082,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="47" t="s">
         <v>68</v>
       </c>
@@ -5096,7 +5100,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>37622</v>
       </c>
@@ -5116,7 +5120,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>37653</v>
       </c>
@@ -5140,7 +5144,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37681</v>
       </c>
@@ -5164,7 +5168,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>37712</v>
       </c>
@@ -5184,7 +5188,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>37742</v>
       </c>
@@ -5210,7 +5214,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>49</v>
@@ -5232,7 +5236,7 @@
         <v>37771</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>37773</v>
       </c>
@@ -5256,7 +5260,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>37803</v>
       </c>
@@ -5282,7 +5286,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>37834</v>
       </c>
@@ -5302,7 +5306,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>37865</v>
       </c>
@@ -5322,7 +5326,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>37895</v>
       </c>
@@ -5342,7 +5346,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>37926</v>
       </c>
@@ -5362,7 +5366,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>37956</v>
       </c>
@@ -5388,7 +5392,7 @@
         <v>37965</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="47" t="s">
         <v>76</v>
       </c>
@@ -5406,7 +5410,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="48"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>37987</v>
       </c>
@@ -5430,7 +5434,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>38018</v>
       </c>
@@ -5454,7 +5458,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>38047</v>
       </c>
@@ -5478,7 +5482,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>38078</v>
       </c>
@@ -5502,7 +5506,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>38108</v>
       </c>
@@ -5526,7 +5530,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>38139</v>
       </c>
@@ -5550,7 +5554,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>38169</v>
       </c>
@@ -5574,7 +5578,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>38200</v>
       </c>
@@ -5598,7 +5602,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>38231</v>
       </c>
@@ -5622,7 +5626,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>38261</v>
       </c>
@@ -5648,7 +5652,7 @@
         <v>38273</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>54</v>
@@ -5668,7 +5672,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>38292</v>
       </c>
@@ -5688,7 +5692,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>38322</v>
       </c>
@@ -5712,7 +5716,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="47" t="s">
         <v>86</v>
       </c>
@@ -5730,7 +5734,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>38353</v>
       </c>
@@ -5754,7 +5758,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>38384</v>
       </c>
@@ -5780,7 +5784,7 @@
         <v>38399</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>78</v>
@@ -5800,7 +5804,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="48"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>38412</v>
       </c>
@@ -5826,7 +5830,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>77</v>
@@ -5846,7 +5850,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>38443</v>
       </c>
@@ -5870,7 +5874,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>38473</v>
       </c>
@@ -5894,7 +5898,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>38504</v>
       </c>
@@ -5918,7 +5922,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>81</v>
@@ -5938,7 +5942,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>38534</v>
       </c>
@@ -5962,7 +5966,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>38565</v>
       </c>
@@ -5988,7 +5992,7 @@
         <v>38590</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>59</v>
@@ -6010,7 +6014,7 @@
         <v>38593</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>54</v>
@@ -6030,7 +6034,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>83</v>
@@ -6050,7 +6054,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="48"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>38596</v>
       </c>
@@ -6074,7 +6078,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>84</v>
@@ -6094,7 +6098,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>38626</v>
       </c>
@@ -6118,7 +6122,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>38657</v>
       </c>
@@ -6138,7 +6142,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>38687</v>
       </c>
@@ -6158,7 +6162,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="47" t="s">
         <v>91</v>
       </c>
@@ -6176,7 +6180,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>38718</v>
       </c>
@@ -6196,7 +6200,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>38749</v>
       </c>
@@ -6216,7 +6220,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>38777</v>
       </c>
@@ -6240,7 +6244,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>38808</v>
       </c>
@@ -6266,7 +6270,7 @@
         <v>38856</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>38838</v>
       </c>
@@ -6286,7 +6290,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>38869</v>
       </c>
@@ -6312,7 +6316,7 @@
         <v>38884</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>38899</v>
       </c>
@@ -6336,7 +6340,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>38930</v>
       </c>
@@ -6362,7 +6366,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>38961</v>
       </c>
@@ -6388,7 +6392,7 @@
         <v>38957</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>38991</v>
       </c>
@@ -6408,7 +6412,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>39022</v>
       </c>
@@ -6432,7 +6436,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>39052</v>
       </c>
@@ -6452,7 +6456,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="47" t="s">
         <v>96</v>
       </c>
@@ -6470,7 +6474,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>39083</v>
       </c>
@@ -6490,7 +6494,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>39114</v>
       </c>
@@ -6514,7 +6518,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>39142</v>
       </c>
@@ -6540,7 +6544,7 @@
         <v>39171</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>39173</v>
       </c>
@@ -6564,7 +6568,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>39203</v>
       </c>
@@ -6584,7 +6588,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>39234</v>
       </c>
@@ -6604,7 +6608,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>39264</v>
       </c>
@@ -6630,7 +6634,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>39295</v>
       </c>
@@ -6650,7 +6654,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>39326</v>
       </c>
@@ -6676,7 +6680,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>39356</v>
       </c>
@@ -6696,7 +6700,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>39387</v>
       </c>
@@ -6716,7 +6720,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>39417</v>
       </c>
@@ -6736,7 +6740,7 @@
       <c r="J153" s="12"/>
       <c r="K153" s="15"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="47" t="s">
         <v>101</v>
       </c>
@@ -6754,7 +6758,7 @@
       <c r="J154" s="12"/>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>39448</v>
       </c>
@@ -6774,7 +6778,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>39479</v>
       </c>
@@ -6794,7 +6798,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>39508</v>
       </c>
@@ -6814,7 +6818,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>39539</v>
       </c>
@@ -6834,7 +6838,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>39569</v>
       </c>
@@ -6854,7 +6858,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>39600</v>
       </c>
@@ -6874,7 +6878,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>39630</v>
       </c>
@@ -6894,7 +6898,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>39661</v>
       </c>
@@ -6914,7 +6918,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>39692</v>
       </c>
@@ -6934,7 +6938,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>39722</v>
       </c>
@@ -6954,7 +6958,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>39753</v>
       </c>
@@ -6974,7 +6978,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>39783</v>
       </c>
@@ -6998,7 +7002,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>103</v>
@@ -7018,7 +7022,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="47" t="s">
         <v>105</v>
       </c>
@@ -7036,7 +7040,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>39814</v>
       </c>
@@ -7056,7 +7060,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>39845</v>
       </c>
@@ -7076,7 +7080,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>39873</v>
       </c>
@@ -7100,7 +7104,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>102</v>
@@ -7120,7 +7124,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>102</v>
@@ -7140,7 +7144,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>102</v>
@@ -7160,7 +7164,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>39904</v>
       </c>
@@ -7180,7 +7184,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>39934</v>
       </c>
@@ -7200,7 +7204,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>39965</v>
       </c>
@@ -7220,7 +7224,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>39995</v>
       </c>
@@ -7240,7 +7244,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>40026</v>
       </c>
@@ -7264,7 +7268,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>40057</v>
       </c>
@@ -7288,7 +7292,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>74</v>
@@ -7310,7 +7314,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>102</v>
@@ -7330,7 +7334,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>40087</v>
       </c>
@@ -7350,7 +7354,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>40118</v>
       </c>
@@ -7370,7 +7374,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>40148</v>
       </c>
@@ -7394,7 +7398,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="47" t="s">
         <v>114</v>
       </c>
@@ -7412,7 +7416,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>40179</v>
       </c>
@@ -7432,7 +7436,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>40210</v>
       </c>
@@ -7452,7 +7456,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>40238</v>
       </c>
@@ -7478,7 +7482,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>54</v>
@@ -7498,7 +7502,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>54</v>
@@ -7518,7 +7522,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>40269</v>
       </c>
@@ -7538,7 +7542,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>40299</v>
       </c>
@@ -7558,7 +7562,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>40330</v>
       </c>
@@ -7582,7 +7586,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>40360</v>
       </c>
@@ -7606,7 +7610,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>119</v>
@@ -7626,7 +7630,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>40391</v>
       </c>
@@ -7646,7 +7650,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>40422</v>
       </c>
@@ -7666,7 +7670,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>40452</v>
       </c>
@@ -7690,7 +7694,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>40483</v>
       </c>
@@ -7710,7 +7714,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>40513</v>
       </c>
@@ -7734,7 +7738,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="47" t="s">
         <v>122</v>
       </c>
@@ -7752,7 +7756,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>40544</v>
       </c>
@@ -7772,7 +7776,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>40575</v>
       </c>
@@ -7796,7 +7800,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>40603</v>
       </c>
@@ -7816,7 +7820,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>40634</v>
       </c>
@@ -7836,7 +7840,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>40664</v>
       </c>
@@ -7856,7 +7860,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>40695</v>
       </c>
@@ -7880,7 +7884,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>40725</v>
       </c>
@@ -7904,7 +7908,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>40756</v>
       </c>
@@ -7928,7 +7932,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>119</v>
@@ -7948,7 +7952,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>102</v>
@@ -7968,7 +7972,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>40787</v>
       </c>
@@ -7988,7 +7992,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>40817</v>
       </c>
@@ -8008,7 +8012,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>40848</v>
       </c>
@@ -8034,7 +8038,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>54</v>
@@ -8054,7 +8058,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>40878</v>
       </c>
@@ -8078,7 +8082,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="47" t="s">
         <v>132</v>
       </c>
@@ -8096,7 +8100,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>40909</v>
       </c>
@@ -8120,7 +8124,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>40940</v>
       </c>
@@ -8140,7 +8144,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>40969</v>
       </c>
@@ -8166,7 +8170,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>119</v>
@@ -8186,7 +8190,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>41000</v>
       </c>
@@ -8206,7 +8210,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>41030</v>
       </c>
@@ -8226,7 +8230,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>41061</v>
       </c>
@@ -8246,7 +8250,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>41091</v>
       </c>
@@ -8270,7 +8274,7 @@
         <v>41113</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>55</v>
@@ -8292,7 +8296,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>54</v>
@@ -8312,7 +8316,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>41122</v>
       </c>
@@ -8332,7 +8336,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>41153</v>
       </c>
@@ -8352,7 +8356,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>41183</v>
       </c>
@@ -8378,7 +8382,7 @@
         <v>41204</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>41214</v>
       </c>
@@ -8398,7 +8402,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>41244</v>
       </c>
@@ -8422,7 +8426,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="47" t="s">
         <v>138</v>
       </c>
@@ -8440,7 +8444,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>41275</v>
       </c>
@@ -8464,7 +8468,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>41306</v>
       </c>
@@ -8490,7 +8494,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>41334</v>
       </c>
@@ -8510,7 +8514,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>41365</v>
       </c>
@@ -8530,7 +8534,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>41395</v>
       </c>
@@ -8556,7 +8560,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>41426</v>
       </c>
@@ -8582,7 +8586,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>41456</v>
       </c>
@@ -8602,7 +8606,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>41487</v>
       </c>
@@ -8628,7 +8632,7 @@
         <v>41516</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>41518</v>
       </c>
@@ -8648,7 +8652,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>41548</v>
       </c>
@@ -8668,7 +8672,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>41579</v>
       </c>
@@ -8694,7 +8698,7 @@
         <v>41592</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>41609</v>
       </c>
@@ -8714,7 +8718,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="47" t="s">
         <v>144</v>
       </c>
@@ -8732,7 +8736,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>41640</v>
       </c>
@@ -8752,7 +8756,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>41671</v>
       </c>
@@ -8772,7 +8776,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>41699</v>
       </c>
@@ -8796,7 +8800,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>41730</v>
       </c>
@@ -8822,7 +8826,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>41760</v>
       </c>
@@ -8848,7 +8852,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>41791</v>
       </c>
@@ -8868,7 +8872,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>41821</v>
       </c>
@@ -8888,7 +8892,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>41852</v>
       </c>
@@ -8908,7 +8912,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>41883</v>
       </c>
@@ -8928,7 +8932,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>41913</v>
       </c>
@@ -8948,7 +8952,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>41944</v>
       </c>
@@ -8968,7 +8972,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <v>41974</v>
       </c>
@@ -8988,7 +8992,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="47" t="s">
         <v>148</v>
       </c>
@@ -9006,7 +9010,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>42005</v>
       </c>
@@ -9026,7 +9030,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>42036</v>
       </c>
@@ -9046,7 +9050,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>42064</v>
       </c>
@@ -9066,7 +9070,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>42095</v>
       </c>
@@ -9092,7 +9096,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>42125</v>
       </c>
@@ -9112,7 +9116,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>42156</v>
       </c>
@@ -9136,7 +9140,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>42186</v>
       </c>
@@ -9156,7 +9160,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>42217</v>
       </c>
@@ -9182,7 +9186,7 @@
         <v>42230</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>42248</v>
       </c>
@@ -9202,7 +9206,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>42278</v>
       </c>
@@ -9226,7 +9230,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>49</v>
@@ -9248,7 +9252,7 @@
         <v>42293</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>42309</v>
       </c>
@@ -9274,7 +9278,7 @@
         <v>42324</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>42339</v>
       </c>
@@ -9300,7 +9304,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>67</v>
@@ -9320,7 +9324,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="47" t="s">
         <v>152</v>
       </c>
@@ -9338,7 +9342,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>42370</v>
       </c>
@@ -9362,7 +9366,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>42401</v>
       </c>
@@ -9382,7 +9386,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>42430</v>
       </c>
@@ -9402,7 +9406,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>42461</v>
       </c>
@@ -9422,7 +9426,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>42491</v>
       </c>
@@ -9442,7 +9446,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>42522</v>
       </c>
@@ -9468,7 +9472,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>42552</v>
       </c>
@@ -9488,7 +9492,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>42583</v>
       </c>
@@ -9512,7 +9516,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>42614</v>
       </c>
@@ -9532,7 +9536,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>42644</v>
       </c>
@@ -9552,7 +9556,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>42675</v>
       </c>
@@ -9578,7 +9582,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>42705</v>
       </c>
@@ -9598,7 +9602,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="47" t="s">
         <v>160</v>
       </c>
@@ -9616,7 +9620,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>42736</v>
       </c>
@@ -9636,7 +9640,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>42767</v>
       </c>
@@ -9662,7 +9666,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>42795</v>
       </c>
@@ -9686,7 +9690,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>42826</v>
       </c>
@@ -9706,7 +9710,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>42856</v>
       </c>
@@ -9726,7 +9730,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>42887</v>
       </c>
@@ -9746,7 +9750,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>42917</v>
       </c>
@@ -9766,7 +9770,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>42948</v>
       </c>
@@ -9786,7 +9790,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>42979</v>
       </c>
@@ -9810,7 +9814,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>43009</v>
       </c>
@@ -9830,7 +9834,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>43040</v>
       </c>
@@ -9850,7 +9854,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>43070</v>
       </c>
@@ -9874,7 +9878,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>55</v>
@@ -9894,7 +9898,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="47" t="s">
         <v>165</v>
       </c>
@@ -9912,7 +9916,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>43101</v>
       </c>
@@ -9932,7 +9936,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>43132</v>
       </c>
@@ -9952,7 +9956,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>43160</v>
       </c>
@@ -9976,7 +9980,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>62</v>
@@ -9998,7 +10002,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>43191</v>
       </c>
@@ -10018,7 +10022,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>43221</v>
       </c>
@@ -10038,7 +10042,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>43252</v>
       </c>
@@ -10060,7 +10064,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>43282</v>
       </c>
@@ -10080,7 +10084,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>43313</v>
       </c>
@@ -10100,7 +10104,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>43344</v>
       </c>
@@ -10126,7 +10130,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <v>43374</v>
       </c>
@@ -10146,7 +10150,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>43405</v>
       </c>
@@ -10172,7 +10176,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>49</v>
@@ -10194,7 +10198,7 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>43435</v>
       </c>
@@ -10214,7 +10218,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="47" t="s">
         <v>170</v>
       </c>
@@ -10232,7 +10236,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>43466</v>
       </c>
@@ -10252,7 +10256,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>43497</v>
       </c>
@@ -10272,7 +10276,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>43525</v>
       </c>
@@ -10292,7 +10296,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>43556</v>
       </c>
@@ -10312,7 +10316,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>43586</v>
       </c>
@@ -10332,7 +10336,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>43617</v>
       </c>
@@ -10352,7 +10356,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>43647</v>
       </c>
@@ -10378,7 +10382,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>57</v>
@@ -10398,7 +10402,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>54</v>
@@ -10418,7 +10422,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>43678</v>
       </c>
@@ -10438,7 +10442,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>43709</v>
       </c>
@@ -10458,7 +10462,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>43739</v>
       </c>
@@ -10478,7 +10482,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>43770</v>
       </c>
@@ -10498,7 +10502,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>43800</v>
       </c>
@@ -10522,7 +10526,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="47" t="s">
         <v>174</v>
       </c>
@@ -10540,7 +10544,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>43831</v>
       </c>
@@ -10560,7 +10564,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>43862</v>
       </c>
@@ -10580,7 +10584,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>43891</v>
       </c>
@@ -10600,7 +10604,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>43922</v>
       </c>
@@ -10620,7 +10624,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>43952</v>
       </c>
@@ -10640,7 +10644,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>43983</v>
       </c>
@@ -10660,7 +10664,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>44013</v>
       </c>
@@ -10680,7 +10684,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>44044</v>
       </c>
@@ -10704,7 +10708,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>44075</v>
       </c>
@@ -10724,7 +10728,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>44105</v>
       </c>
@@ -10744,7 +10748,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>44136</v>
       </c>
@@ -10764,7 +10768,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>44166</v>
       </c>
@@ -10788,7 +10792,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="47" t="s">
         <v>176</v>
       </c>
@@ -10806,7 +10810,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>44197</v>
       </c>
@@ -10826,7 +10830,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>44228</v>
       </c>
@@ -10846,7 +10850,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>44256</v>
       </c>
@@ -10866,7 +10870,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>44287</v>
       </c>
@@ -10886,7 +10890,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>44317</v>
       </c>
@@ -10906,7 +10910,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>44348</v>
       </c>
@@ -10926,7 +10930,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>44378</v>
       </c>
@@ -10950,7 +10954,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>44409</v>
       </c>
@@ -10974,7 +10978,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>44440</v>
       </c>
@@ -10994,7 +10998,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>44470</v>
       </c>
@@ -11018,7 +11022,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>49</v>
@@ -11040,7 +11044,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>44501</v>
       </c>
@@ -11060,7 +11064,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>44531</v>
       </c>
@@ -11086,7 +11090,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>67</v>
@@ -11106,7 +11110,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360" s="47" t="s">
         <v>180</v>
       </c>
@@ -11124,7 +11128,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>44562</v>
       </c>
@@ -11145,10 +11149,10 @@
       <c r="K361" s="20"/>
       <c r="N361" s="43">
         <f>SUM(E9,I9)</f>
-        <v>716.18299999999999</v>
-      </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+        <v>716.68299999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>44593</v>
       </c>
@@ -11168,7 +11172,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>44621</v>
       </c>
@@ -11188,7 +11192,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>44652</v>
       </c>
@@ -11212,7 +11216,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>62</v>
@@ -11234,7 +11238,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>44682</v>
       </c>
@@ -11254,7 +11258,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>44713</v>
       </c>
@@ -11274,7 +11278,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>44743</v>
       </c>
@@ -11300,7 +11304,7 @@
         <v>44760</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>44774</v>
       </c>
@@ -11326,7 +11330,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>54</v>
@@ -11346,7 +11350,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>44805</v>
       </c>
@@ -11366,7 +11370,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>44835</v>
       </c>
@@ -11392,7 +11396,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>44866</v>
       </c>
@@ -11416,7 +11420,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>44896</v>
       </c>
@@ -11436,7 +11440,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="47" t="s">
         <v>187</v>
       </c>
@@ -11454,7 +11458,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>44927</v>
       </c>
@@ -11474,7 +11478,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>44958</v>
       </c>
@@ -11494,7 +11498,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>44986</v>
       </c>
@@ -11520,7 +11524,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>45017</v>
       </c>
@@ -11540,22 +11544,24 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>45047</v>
       </c>
       <c r="B380" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C380" s="13"/>
+      <c r="C380" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D380" s="39">
         <v>2</v>
       </c>
       <c r="E380" s="9"/>
       <c r="F380" s="20"/>
-      <c r="G380" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G380" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H380" s="39"/>
       <c r="I380" s="9"/>
@@ -11564,13 +11570,17 @@
         <v>189</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>45078</v>
       </c>
-      <c r="B381" s="20"/>
+      <c r="B381" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C381" s="13"/>
-      <c r="D381" s="39"/>
+      <c r="D381" s="39">
+        <v>2</v>
+      </c>
       <c r="E381" s="9"/>
       <c r="F381" s="20"/>
       <c r="G381" s="13" t="str">
@@ -11580,9 +11590,11 @@
       <c r="H381" s="39"/>
       <c r="I381" s="9"/>
       <c r="J381" s="11"/>
-      <c r="K381" s="20"/>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K381" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>45108</v>
       </c>
@@ -11600,7 +11612,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>45139</v>
       </c>
@@ -11618,7 +11630,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>45170</v>
       </c>
@@ -11636,7 +11648,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>45200</v>
       </c>
@@ -11654,7 +11666,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -11670,7 +11682,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -11701,10 +11713,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11727,7 +11739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11735,21 +11747,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -11762,7 +11774,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11791,7 +11803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>31.25</v>
       </c>
@@ -11819,17 +11831,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11850,7 +11862,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11877,7 +11889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11903,7 +11915,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11929,7 +11941,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11955,7 +11967,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11981,7 +11993,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12007,7 +12019,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12033,7 +12045,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12059,7 +12071,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12079,7 +12091,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12099,7 +12111,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12119,7 +12131,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12140,7 +12152,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12161,7 +12173,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12182,7 +12194,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12203,7 +12215,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12224,7 +12236,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12245,7 +12257,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12266,7 +12278,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12287,7 +12299,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12308,7 +12320,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12329,7 +12341,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12350,7 +12362,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12371,7 +12383,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12392,7 +12404,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12413,7 +12425,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12434,7 +12446,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12455,7 +12467,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12476,7 +12488,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12497,7 +12509,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12518,7 +12530,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12539,7 +12551,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12548,7 +12560,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12557,7 +12569,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12566,7 +12578,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12575,7 +12587,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12584,7 +12596,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12593,7 +12605,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12602,7 +12614,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12611,7 +12623,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12620,7 +12632,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12629,7 +12641,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12638,7 +12650,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12647,7 +12659,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12656,7 +12668,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12665,7 +12677,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12674,7 +12686,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12683,7 +12695,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12692,7 +12704,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12701,7 +12713,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12710,7 +12722,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12719,7 +12731,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12728,7 +12740,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12737,7 +12749,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12746,7 +12758,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12755,7 +12767,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12764,7 +12776,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12773,7 +12785,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12782,7 +12794,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12791,7 +12803,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12800,7 +12812,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/LERIO, ROSEMARIE.xlsx
+++ b/REGULAR/LERIO, ROSEMARIE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEFA5D3-F236-4D8D-AF8C-8640404819F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="648" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="645" windowWidth="23010" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="191">
   <si>
     <t>PERIOD</t>
   </si>
@@ -613,7 +612,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1470,7 +1469,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,7 +1512,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1576,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,7 +1636,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1703,7 +1702,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1765,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,7 +1863,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1922,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,7 +1987,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,7 +2030,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,7 +2105,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2291,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2357,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2415,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2482,7 +2481,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,7 +2537,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2613,7 +2612,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2656,7 +2655,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2722,7 +2721,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2778,7 +2777,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2876,7 +2875,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2939,7 +2938,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2988,7 +2987,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3005,25 +3004,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K387" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K387" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3035,13 +3034,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3050,14 +3049,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3361,7 +3360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3371,7 +3370,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3379,34 +3378,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:N387"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A376" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A364" activePane="bottomLeft"/>
       <selection activeCell="P8" sqref="P8:Q8"/>
-      <selection pane="bottomLeft" activeCell="E384" sqref="E384"/>
+      <selection pane="bottomLeft" activeCell="K385" sqref="K385"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3427,7 +3426,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3447,7 +3446,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3469,7 +3468,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3477,7 +3476,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3490,7 +3489,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -3507,7 +3506,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3542,7 +3541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3551,7 +3550,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>252.93299999999999</v>
+        <v>257.93299999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3561,12 +3560,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>463.75</v>
+        <v>468.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
@@ -3588,7 +3587,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35796</v>
       </c>
@@ -3608,7 +3607,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35827</v>
       </c>
@@ -3628,7 +3627,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35855</v>
       </c>
@@ -3652,7 +3651,7 @@
         <v>35871</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35886</v>
       </c>
@@ -3672,7 +3671,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35916</v>
       </c>
@@ -3696,7 +3695,7 @@
         <v>35922</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35947</v>
       </c>
@@ -3716,7 +3715,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>35977</v>
       </c>
@@ -3736,7 +3735,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36008</v>
       </c>
@@ -3756,7 +3755,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>36039</v>
       </c>
@@ -3776,7 +3775,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>36069</v>
       </c>
@@ -3796,7 +3795,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36100</v>
       </c>
@@ -3816,7 +3815,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>36130</v>
       </c>
@@ -3840,7 +3839,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>50</v>
@@ -3860,7 +3859,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>51</v>
       </c>
@@ -3878,7 +3877,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36161</v>
       </c>
@@ -3898,7 +3897,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36192</v>
       </c>
@@ -3918,7 +3917,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36220</v>
       </c>
@@ -3940,7 +3939,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36251</v>
       </c>
@@ -3960,7 +3959,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36281</v>
       </c>
@@ -3986,7 +3985,7 @@
         <v>36288</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>49</v>
@@ -4008,7 +4007,7 @@
         <v>36308</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36312</v>
       </c>
@@ -4028,7 +4027,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36342</v>
       </c>
@@ -4048,7 +4047,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36373</v>
       </c>
@@ -4074,7 +4073,7 @@
         <v>36378</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>54</v>
@@ -4094,7 +4093,7 @@
         <v>36402</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36404</v>
       </c>
@@ -4114,7 +4113,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36434</v>
       </c>
@@ -4134,7 +4133,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36465</v>
       </c>
@@ -4154,7 +4153,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36495</v>
       </c>
@@ -4178,7 +4177,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
         <v>56</v>
       </c>
@@ -4196,7 +4195,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36526</v>
       </c>
@@ -4216,7 +4215,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36557</v>
       </c>
@@ -4236,7 +4235,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36586</v>
       </c>
@@ -4262,7 +4261,7 @@
         <v>36602</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36617</v>
       </c>
@@ -4286,7 +4285,7 @@
         <v>36635</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36647</v>
       </c>
@@ -4312,7 +4311,7 @@
         <v>36672</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36678</v>
       </c>
@@ -4336,7 +4335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36708</v>
       </c>
@@ -4356,7 +4355,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36739</v>
       </c>
@@ -4376,7 +4375,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36770</v>
       </c>
@@ -4396,7 +4395,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36800</v>
       </c>
@@ -4416,7 +4415,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36831</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>36836</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>36861</v>
       </c>
@@ -4468,7 +4467,7 @@
         <v>36865</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>59</v>
@@ -4488,7 +4487,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="48"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>60</v>
       </c>
@@ -4506,7 +4505,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="48"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36892</v>
       </c>
@@ -4526,7 +4525,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>36923</v>
       </c>
@@ -4546,7 +4545,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36951</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>36952</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>49</v>
@@ -4594,7 +4593,7 @@
         <v>36973</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>36982</v>
       </c>
@@ -4614,7 +4613,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>37012</v>
       </c>
@@ -4634,7 +4633,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37043</v>
       </c>
@@ -4654,7 +4653,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>37073</v>
       </c>
@@ -4674,7 +4673,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>37104</v>
       </c>
@@ -4700,7 +4699,7 @@
         <v>37133</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>37135</v>
       </c>
@@ -4726,7 +4725,7 @@
         <v>37159</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37165</v>
       </c>
@@ -4752,7 +4751,7 @@
         <v>37188</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>37196</v>
       </c>
@@ -4772,7 +4771,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37226</v>
       </c>
@@ -4796,7 +4795,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
         <v>61</v>
       </c>
@@ -4814,7 +4813,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37257</v>
       </c>
@@ -4834,7 +4833,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37288</v>
       </c>
@@ -4854,7 +4853,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>37316</v>
       </c>
@@ -4878,7 +4877,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37347</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37377</v>
       </c>
@@ -4924,7 +4923,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>37408</v>
       </c>
@@ -4948,7 +4947,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37438</v>
       </c>
@@ -4972,7 +4971,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37469</v>
       </c>
@@ -4992,7 +4991,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37500</v>
       </c>
@@ -5012,7 +5011,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37530</v>
       </c>
@@ -5032,7 +5031,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37561</v>
       </c>
@@ -5058,7 +5057,7 @@
         <v>37580</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37591</v>
       </c>
@@ -5082,7 +5081,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="47" t="s">
         <v>68</v>
       </c>
@@ -5100,7 +5099,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37622</v>
       </c>
@@ -5120,7 +5119,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37653</v>
       </c>
@@ -5144,7 +5143,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37681</v>
       </c>
@@ -5168,7 +5167,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37712</v>
       </c>
@@ -5188,7 +5187,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37742</v>
       </c>
@@ -5214,7 +5213,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>49</v>
@@ -5236,7 +5235,7 @@
         <v>37771</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37773</v>
       </c>
@@ -5260,7 +5259,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37803</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>37834</v>
       </c>
@@ -5306,7 +5305,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37865</v>
       </c>
@@ -5326,7 +5325,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37895</v>
       </c>
@@ -5346,7 +5345,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37926</v>
       </c>
@@ -5366,7 +5365,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37956</v>
       </c>
@@ -5392,7 +5391,7 @@
         <v>37965</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="47" t="s">
         <v>76</v>
       </c>
@@ -5410,7 +5409,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="48"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37987</v>
       </c>
@@ -5434,7 +5433,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>38018</v>
       </c>
@@ -5458,7 +5457,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>38047</v>
       </c>
@@ -5482,7 +5481,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>38078</v>
       </c>
@@ -5506,7 +5505,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>38108</v>
       </c>
@@ -5530,7 +5529,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>38139</v>
       </c>
@@ -5554,7 +5553,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>38169</v>
       </c>
@@ -5578,7 +5577,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>38200</v>
       </c>
@@ -5602,7 +5601,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>38231</v>
       </c>
@@ -5626,7 +5625,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>38261</v>
       </c>
@@ -5652,7 +5651,7 @@
         <v>38273</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>54</v>
@@ -5672,7 +5671,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>38292</v>
       </c>
@@ -5692,7 +5691,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>38322</v>
       </c>
@@ -5716,7 +5715,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="47" t="s">
         <v>86</v>
       </c>
@@ -5734,7 +5733,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>38353</v>
       </c>
@@ -5758,7 +5757,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>38384</v>
       </c>
@@ -5784,7 +5783,7 @@
         <v>38399</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>78</v>
@@ -5804,7 +5803,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="48"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>38412</v>
       </c>
@@ -5830,7 +5829,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>77</v>
@@ -5850,7 +5849,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>38443</v>
       </c>
@@ -5874,7 +5873,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>38473</v>
       </c>
@@ -5898,7 +5897,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38504</v>
       </c>
@@ -5922,7 +5921,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>81</v>
@@ -5942,7 +5941,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>38534</v>
       </c>
@@ -5966,7 +5965,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38565</v>
       </c>
@@ -5992,7 +5991,7 @@
         <v>38590</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>59</v>
@@ -6014,7 +6013,7 @@
         <v>38593</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>54</v>
@@ -6034,7 +6033,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>83</v>
@@ -6054,7 +6053,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="48"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>38596</v>
       </c>
@@ -6078,7 +6077,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>84</v>
@@ -6098,7 +6097,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38626</v>
       </c>
@@ -6122,7 +6121,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>38657</v>
       </c>
@@ -6142,7 +6141,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>38687</v>
       </c>
@@ -6162,7 +6161,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="47" t="s">
         <v>91</v>
       </c>
@@ -6180,7 +6179,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38718</v>
       </c>
@@ -6200,7 +6199,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38749</v>
       </c>
@@ -6220,7 +6219,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>38777</v>
       </c>
@@ -6244,7 +6243,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>38808</v>
       </c>
@@ -6270,7 +6269,7 @@
         <v>38856</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>38838</v>
       </c>
@@ -6290,7 +6289,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38869</v>
       </c>
@@ -6316,7 +6315,7 @@
         <v>38884</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>38899</v>
       </c>
@@ -6340,7 +6339,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38930</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>38961</v>
       </c>
@@ -6392,7 +6391,7 @@
         <v>38957</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38991</v>
       </c>
@@ -6412,7 +6411,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>39022</v>
       </c>
@@ -6436,7 +6435,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>39052</v>
       </c>
@@ -6456,7 +6455,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="47" t="s">
         <v>96</v>
       </c>
@@ -6474,7 +6473,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>39083</v>
       </c>
@@ -6494,7 +6493,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>39114</v>
       </c>
@@ -6518,7 +6517,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>39142</v>
       </c>
@@ -6544,7 +6543,7 @@
         <v>39171</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>39173</v>
       </c>
@@ -6568,7 +6567,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>39203</v>
       </c>
@@ -6588,7 +6587,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>39234</v>
       </c>
@@ -6608,7 +6607,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>39264</v>
       </c>
@@ -6634,7 +6633,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>39295</v>
       </c>
@@ -6654,7 +6653,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>39326</v>
       </c>
@@ -6680,7 +6679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>39356</v>
       </c>
@@ -6700,7 +6699,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>39387</v>
       </c>
@@ -6720,7 +6719,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>39417</v>
       </c>
@@ -6740,7 +6739,7 @@
       <c r="J153" s="12"/>
       <c r="K153" s="15"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="47" t="s">
         <v>101</v>
       </c>
@@ -6758,7 +6757,7 @@
       <c r="J154" s="12"/>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>39448</v>
       </c>
@@ -6778,7 +6777,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>39479</v>
       </c>
@@ -6798,7 +6797,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>39508</v>
       </c>
@@ -6818,7 +6817,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>39539</v>
       </c>
@@ -6838,7 +6837,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>39569</v>
       </c>
@@ -6858,7 +6857,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>39600</v>
       </c>
@@ -6878,7 +6877,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>39630</v>
       </c>
@@ -6898,7 +6897,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>39661</v>
       </c>
@@ -6918,7 +6917,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>39692</v>
       </c>
@@ -6938,7 +6937,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>39722</v>
       </c>
@@ -6958,7 +6957,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>39753</v>
       </c>
@@ -6978,7 +6977,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>39783</v>
       </c>
@@ -7002,7 +7001,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>103</v>
@@ -7022,7 +7021,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="47" t="s">
         <v>105</v>
       </c>
@@ -7040,7 +7039,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>39814</v>
       </c>
@@ -7060,7 +7059,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>39845</v>
       </c>
@@ -7080,7 +7079,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>39873</v>
       </c>
@@ -7104,7 +7103,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>102</v>
@@ -7124,7 +7123,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>102</v>
@@ -7144,7 +7143,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>102</v>
@@ -7164,7 +7163,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>39904</v>
       </c>
@@ -7184,7 +7183,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>39934</v>
       </c>
@@ -7204,7 +7203,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>39965</v>
       </c>
@@ -7224,7 +7223,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>39995</v>
       </c>
@@ -7244,7 +7243,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>40026</v>
       </c>
@@ -7268,7 +7267,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>40057</v>
       </c>
@@ -7292,7 +7291,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>74</v>
@@ -7314,7 +7313,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>102</v>
@@ -7334,7 +7333,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>40087</v>
       </c>
@@ -7354,7 +7353,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>40118</v>
       </c>
@@ -7374,7 +7373,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>40148</v>
       </c>
@@ -7398,7 +7397,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="47" t="s">
         <v>114</v>
       </c>
@@ -7416,7 +7415,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>40179</v>
       </c>
@@ -7436,7 +7435,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>40210</v>
       </c>
@@ -7456,7 +7455,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>40238</v>
       </c>
@@ -7482,7 +7481,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>54</v>
@@ -7502,7 +7501,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>54</v>
@@ -7522,7 +7521,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>40269</v>
       </c>
@@ -7542,7 +7541,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>40299</v>
       </c>
@@ -7562,7 +7561,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>40330</v>
       </c>
@@ -7586,7 +7585,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>40360</v>
       </c>
@@ -7610,7 +7609,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>119</v>
@@ -7630,7 +7629,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>40391</v>
       </c>
@@ -7650,7 +7649,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>40422</v>
       </c>
@@ -7670,7 +7669,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>40452</v>
       </c>
@@ -7694,7 +7693,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>40483</v>
       </c>
@@ -7714,7 +7713,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>40513</v>
       </c>
@@ -7738,7 +7737,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="47" t="s">
         <v>122</v>
       </c>
@@ -7756,7 +7755,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>40544</v>
       </c>
@@ -7776,7 +7775,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>40575</v>
       </c>
@@ -7800,7 +7799,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>40603</v>
       </c>
@@ -7820,7 +7819,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>40634</v>
       </c>
@@ -7840,7 +7839,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>40664</v>
       </c>
@@ -7860,7 +7859,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>40695</v>
       </c>
@@ -7884,7 +7883,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>40725</v>
       </c>
@@ -7908,7 +7907,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>40756</v>
       </c>
@@ -7932,7 +7931,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>119</v>
@@ -7952,7 +7951,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>102</v>
@@ -7972,7 +7971,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>40787</v>
       </c>
@@ -7992,7 +7991,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>40817</v>
       </c>
@@ -8012,7 +8011,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>40848</v>
       </c>
@@ -8038,7 +8037,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>54</v>
@@ -8058,7 +8057,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>40878</v>
       </c>
@@ -8082,7 +8081,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="47" t="s">
         <v>132</v>
       </c>
@@ -8100,7 +8099,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>40909</v>
       </c>
@@ -8124,7 +8123,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>40940</v>
       </c>
@@ -8144,7 +8143,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>40969</v>
       </c>
@@ -8170,7 +8169,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>119</v>
@@ -8190,7 +8189,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>41000</v>
       </c>
@@ -8210,7 +8209,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>41030</v>
       </c>
@@ -8230,7 +8229,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>41061</v>
       </c>
@@ -8250,7 +8249,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>41091</v>
       </c>
@@ -8274,7 +8273,7 @@
         <v>41113</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>55</v>
@@ -8296,7 +8295,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>54</v>
@@ -8316,7 +8315,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>41122</v>
       </c>
@@ -8336,7 +8335,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>41153</v>
       </c>
@@ -8356,7 +8355,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>41183</v>
       </c>
@@ -8382,7 +8381,7 @@
         <v>41204</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>41214</v>
       </c>
@@ -8402,7 +8401,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>41244</v>
       </c>
@@ -8426,7 +8425,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="47" t="s">
         <v>138</v>
       </c>
@@ -8444,7 +8443,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>41275</v>
       </c>
@@ -8468,7 +8467,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>41306</v>
       </c>
@@ -8494,7 +8493,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>41334</v>
       </c>
@@ -8514,7 +8513,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>41365</v>
       </c>
@@ -8534,7 +8533,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>41395</v>
       </c>
@@ -8560,7 +8559,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>41426</v>
       </c>
@@ -8586,7 +8585,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>41456</v>
       </c>
@@ -8606,7 +8605,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>41487</v>
       </c>
@@ -8632,7 +8631,7 @@
         <v>41516</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>41518</v>
       </c>
@@ -8652,7 +8651,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>41548</v>
       </c>
@@ -8672,7 +8671,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>41579</v>
       </c>
@@ -8698,7 +8697,7 @@
         <v>41592</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>41609</v>
       </c>
@@ -8718,7 +8717,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="47" t="s">
         <v>144</v>
       </c>
@@ -8736,7 +8735,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>41640</v>
       </c>
@@ -8756,7 +8755,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>41671</v>
       </c>
@@ -8776,7 +8775,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>41699</v>
       </c>
@@ -8800,7 +8799,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>41730</v>
       </c>
@@ -8826,7 +8825,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>41760</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>41791</v>
       </c>
@@ -8872,7 +8871,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>41821</v>
       </c>
@@ -8892,7 +8891,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>41852</v>
       </c>
@@ -8912,7 +8911,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>41883</v>
       </c>
@@ -8932,7 +8931,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>41913</v>
       </c>
@@ -8952,7 +8951,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>41944</v>
       </c>
@@ -8972,7 +8971,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>41974</v>
       </c>
@@ -8992,7 +8991,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="47" t="s">
         <v>148</v>
       </c>
@@ -9010,7 +9009,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>42005</v>
       </c>
@@ -9030,7 +9029,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>42036</v>
       </c>
@@ -9050,7 +9049,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>42064</v>
       </c>
@@ -9070,7 +9069,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>42095</v>
       </c>
@@ -9096,7 +9095,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>42125</v>
       </c>
@@ -9116,7 +9115,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>42156</v>
       </c>
@@ -9140,7 +9139,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>42186</v>
       </c>
@@ -9160,7 +9159,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>42217</v>
       </c>
@@ -9186,7 +9185,7 @@
         <v>42230</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>42248</v>
       </c>
@@ -9206,7 +9205,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>42278</v>
       </c>
@@ -9230,7 +9229,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>49</v>
@@ -9252,7 +9251,7 @@
         <v>42293</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>42309</v>
       </c>
@@ -9278,7 +9277,7 @@
         <v>42324</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>42339</v>
       </c>
@@ -9304,7 +9303,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>67</v>
@@ -9324,7 +9323,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="47" t="s">
         <v>152</v>
       </c>
@@ -9342,7 +9341,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>42370</v>
       </c>
@@ -9366,7 +9365,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>42401</v>
       </c>
@@ -9386,7 +9385,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>42430</v>
       </c>
@@ -9406,7 +9405,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>42461</v>
       </c>
@@ -9426,7 +9425,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>42491</v>
       </c>
@@ -9446,7 +9445,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>42522</v>
       </c>
@@ -9472,7 +9471,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>42552</v>
       </c>
@@ -9492,7 +9491,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>42583</v>
       </c>
@@ -9516,7 +9515,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>42614</v>
       </c>
@@ -9536,7 +9535,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>42644</v>
       </c>
@@ -9556,7 +9555,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>42675</v>
       </c>
@@ -9582,7 +9581,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>42705</v>
       </c>
@@ -9602,7 +9601,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="47" t="s">
         <v>160</v>
       </c>
@@ -9620,7 +9619,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>42736</v>
       </c>
@@ -9640,7 +9639,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>42767</v>
       </c>
@@ -9666,7 +9665,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>42795</v>
       </c>
@@ -9690,7 +9689,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>42826</v>
       </c>
@@ -9710,7 +9709,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>42856</v>
       </c>
@@ -9730,7 +9729,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>42887</v>
       </c>
@@ -9750,7 +9749,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>42917</v>
       </c>
@@ -9770,7 +9769,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>42948</v>
       </c>
@@ -9790,7 +9789,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>42979</v>
       </c>
@@ -9814,7 +9813,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>43009</v>
       </c>
@@ -9834,7 +9833,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>43040</v>
       </c>
@@ -9854,7 +9853,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>43070</v>
       </c>
@@ -9878,7 +9877,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>55</v>
@@ -9898,7 +9897,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="47" t="s">
         <v>165</v>
       </c>
@@ -9916,7 +9915,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>43101</v>
       </c>
@@ -9936,7 +9935,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>43132</v>
       </c>
@@ -9956,7 +9955,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>43160</v>
       </c>
@@ -9980,7 +9979,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>62</v>
@@ -10002,7 +10001,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>43191</v>
       </c>
@@ -10022,7 +10021,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>43221</v>
       </c>
@@ -10042,7 +10041,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>43252</v>
       </c>
@@ -10064,7 +10063,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>43282</v>
       </c>
@@ -10084,7 +10083,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>43313</v>
       </c>
@@ -10104,7 +10103,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>43344</v>
       </c>
@@ -10130,7 +10129,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>43374</v>
       </c>
@@ -10150,7 +10149,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>43405</v>
       </c>
@@ -10176,7 +10175,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>49</v>
@@ -10198,7 +10197,7 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>43435</v>
       </c>
@@ -10218,7 +10217,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="47" t="s">
         <v>170</v>
       </c>
@@ -10236,7 +10235,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>43466</v>
       </c>
@@ -10256,7 +10255,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>43497</v>
       </c>
@@ -10276,7 +10275,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>43525</v>
       </c>
@@ -10296,7 +10295,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43556</v>
       </c>
@@ -10316,7 +10315,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43586</v>
       </c>
@@ -10336,7 +10335,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43617</v>
       </c>
@@ -10356,7 +10355,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43647</v>
       </c>
@@ -10382,7 +10381,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>57</v>
@@ -10402,7 +10401,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>54</v>
@@ -10422,7 +10421,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>43678</v>
       </c>
@@ -10442,7 +10441,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>43709</v>
       </c>
@@ -10462,7 +10461,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43739</v>
       </c>
@@ -10482,7 +10481,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43770</v>
       </c>
@@ -10502,7 +10501,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>43800</v>
       </c>
@@ -10526,7 +10525,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="47" t="s">
         <v>174</v>
       </c>
@@ -10544,7 +10543,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>43831</v>
       </c>
@@ -10564,7 +10563,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>43862</v>
       </c>
@@ -10584,7 +10583,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>43891</v>
       </c>
@@ -10604,7 +10603,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>43922</v>
       </c>
@@ -10624,7 +10623,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>43952</v>
       </c>
@@ -10644,7 +10643,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>43983</v>
       </c>
@@ -10664,7 +10663,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>44013</v>
       </c>
@@ -10684,7 +10683,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>44044</v>
       </c>
@@ -10708,7 +10707,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>44075</v>
       </c>
@@ -10728,7 +10727,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>44105</v>
       </c>
@@ -10748,7 +10747,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>44136</v>
       </c>
@@ -10768,7 +10767,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>44166</v>
       </c>
@@ -10792,7 +10791,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="47" t="s">
         <v>176</v>
       </c>
@@ -10810,7 +10809,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>44197</v>
       </c>
@@ -10830,7 +10829,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>44228</v>
       </c>
@@ -10850,7 +10849,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>44256</v>
       </c>
@@ -10870,7 +10869,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>44287</v>
       </c>
@@ -10890,7 +10889,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>44317</v>
       </c>
@@ -10910,7 +10909,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>44348</v>
       </c>
@@ -10930,7 +10929,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>44378</v>
       </c>
@@ -10954,7 +10953,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>44409</v>
       </c>
@@ -10978,7 +10977,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>44440</v>
       </c>
@@ -10998,7 +10997,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44470</v>
       </c>
@@ -11022,7 +11021,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>49</v>
@@ -11044,7 +11043,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>44501</v>
       </c>
@@ -11064,7 +11063,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44531</v>
       </c>
@@ -11090,7 +11089,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>67</v>
@@ -11110,7 +11109,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" s="47" t="s">
         <v>180</v>
       </c>
@@ -11128,7 +11127,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44562</v>
       </c>
@@ -11149,10 +11148,10 @@
       <c r="K361" s="20"/>
       <c r="N361" s="43">
         <f>SUM(E9,I9)</f>
-        <v>716.68299999999999</v>
-      </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
+        <v>726.68299999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44593</v>
       </c>
@@ -11172,7 +11171,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44621</v>
       </c>
@@ -11192,7 +11191,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44652</v>
       </c>
@@ -11216,7 +11215,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>62</v>
@@ -11238,7 +11237,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44682</v>
       </c>
@@ -11258,7 +11257,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44713</v>
       </c>
@@ -11278,7 +11277,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44743</v>
       </c>
@@ -11304,7 +11303,7 @@
         <v>44760</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>44774</v>
       </c>
@@ -11330,7 +11329,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>54</v>
@@ -11350,7 +11349,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44805</v>
       </c>
@@ -11370,7 +11369,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44835</v>
       </c>
@@ -11396,7 +11395,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44866</v>
       </c>
@@ -11420,7 +11419,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>44896</v>
       </c>
@@ -11440,7 +11439,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="47" t="s">
         <v>187</v>
       </c>
@@ -11458,7 +11457,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44927</v>
       </c>
@@ -11478,7 +11477,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>44958</v>
       </c>
@@ -11498,7 +11497,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44986</v>
       </c>
@@ -11524,7 +11523,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>45017</v>
       </c>
@@ -11544,7 +11543,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>45047</v>
       </c>
@@ -11570,22 +11569,24 @@
         <v>189</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>45078</v>
       </c>
       <c r="B381" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C381" s="13"/>
+      <c r="C381" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D381" s="39">
         <v>2</v>
       </c>
       <c r="E381" s="9"/>
       <c r="F381" s="20"/>
-      <c r="G381" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G381" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H381" s="39"/>
       <c r="I381" s="9"/>
@@ -11594,65 +11595,77 @@
         <v>190</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>45108</v>
       </c>
       <c r="B382" s="20"/>
-      <c r="C382" s="13"/>
+      <c r="C382" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D382" s="39"/>
       <c r="E382" s="9"/>
       <c r="F382" s="20"/>
-      <c r="G382" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G382" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H382" s="39"/>
       <c r="I382" s="9"/>
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>45139</v>
       </c>
-      <c r="B383" s="20"/>
-      <c r="C383" s="13"/>
+      <c r="B383" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C383" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D383" s="39"/>
       <c r="E383" s="9"/>
       <c r="F383" s="20"/>
-      <c r="G383" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G383" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H383" s="39"/>
       <c r="I383" s="9"/>
       <c r="J383" s="11"/>
-      <c r="K383" s="20"/>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K383" s="48">
+        <v>45168</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>45170</v>
       </c>
       <c r="B384" s="20"/>
-      <c r="C384" s="13"/>
+      <c r="C384" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D384" s="39"/>
       <c r="E384" s="9"/>
       <c r="F384" s="20"/>
-      <c r="G384" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G384" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H384" s="39"/>
       <c r="I384" s="9"/>
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>45200</v>
       </c>
-      <c r="B385" s="20"/>
+      <c r="B385" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C385" s="13"/>
       <c r="D385" s="39"/>
       <c r="E385" s="9"/>
@@ -11664,9 +11677,11 @@
       <c r="H385" s="39"/>
       <c r="I385" s="9"/>
       <c r="J385" s="11"/>
-      <c r="K385" s="20"/>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K385" s="48">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -11682,7 +11697,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -11713,10 +11728,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11739,7 +11754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11747,21 +11762,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -11774,7 +11789,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11803,7 +11818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>31.25</v>
       </c>
@@ -11831,17 +11846,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11862,7 +11877,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11889,7 +11904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11915,7 +11930,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11941,7 +11956,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11967,7 +11982,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11993,7 +12008,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12019,7 +12034,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12045,7 +12060,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12071,7 +12086,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12091,7 +12106,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12111,7 +12126,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12131,7 +12146,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12152,7 +12167,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12173,7 +12188,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12194,7 +12209,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12215,7 +12230,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12236,7 +12251,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12257,7 +12272,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12278,7 +12293,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12299,7 +12314,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12320,7 +12335,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12341,7 +12356,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12362,7 +12377,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12383,7 +12398,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12404,7 +12419,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12425,7 +12440,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12446,7 +12461,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12467,7 +12482,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12488,7 +12503,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12509,7 +12524,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12530,7 +12545,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12551,7 +12566,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12560,7 +12575,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12569,7 +12584,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12578,7 +12593,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12587,7 +12602,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12596,7 +12611,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12605,7 +12620,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12614,7 +12629,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12623,7 +12638,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12632,7 +12647,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12641,7 +12656,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12650,7 +12665,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12659,7 +12674,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12668,7 +12683,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12677,7 +12692,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12686,7 +12701,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12695,7 +12710,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12704,7 +12719,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12713,7 +12728,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12722,7 +12737,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12731,7 +12746,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12740,7 +12755,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12749,7 +12764,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12758,7 +12773,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12767,7 +12782,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12776,7 +12791,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12785,7 +12800,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12794,7 +12809,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12803,7 +12818,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12812,7 +12827,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/LERIO, ROSEMARIE.xlsx
+++ b/REGULAR/LERIO, ROSEMARIE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFA039A-D2BF-4B24-B877-DC4DE68DC3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77825ADE-6688-42FE-B089-7BA545D77CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="195">
   <si>
     <t>PERIOD</t>
   </si>
@@ -614,6 +614,12 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>OFFICIAL</t>
+  </si>
+  <si>
+    <t>TAIWAN 2/22-26/2024</t>
   </si>
 </sst>
 </file>
@@ -626,7 +632,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,14 +667,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1007,6 +1005,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1043,10 +1044,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3414,8 +3412,8 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3588" topLeftCell="A382" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C398" sqref="C398"/>
+      <selection activeCell="E9" sqref="E9:I9"/>
+      <selection pane="bottomLeft" activeCell="D389" sqref="D389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3437,64 +3435,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3520,18 +3518,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3576,17 +3574,17 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="62">
+      <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
         <v>262.93299999999999</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="62">
+      <c r="H9" s="62"/>
+      <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
         <v>473.75</v>
       </c>
@@ -3597,7 +3595,7 @@
       <c r="A10" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="49" t="s">
         <v>191</v>
       </c>
       <c r="C10" s="13"/>
@@ -12489,7 +12487,7 @@
       </c>
       <c r="D332" s="39"/>
       <c r="E332" s="9">
-        <f t="shared" ref="E332:E388" si="10">SUM(C332,E331)-D332</f>
+        <f t="shared" ref="E332:E389" si="10">SUM(C332,E331)-D332</f>
         <v>224.93299999999999</v>
       </c>
       <c r="F332" s="20"/>
@@ -12499,7 +12497,7 @@
       </c>
       <c r="H332" s="39"/>
       <c r="I332" s="9">
-        <f t="shared" ref="I332:I388" si="11">SUM(G332,I331)-H332</f>
+        <f t="shared" ref="I332:I389" si="11">SUM(G332,I331)-H332</f>
         <v>413.75</v>
       </c>
       <c r="J332" s="11"/>
@@ -14040,19 +14038,29 @@
       <c r="A389" s="40">
         <v>45323</v>
       </c>
-      <c r="B389" s="20"/>
+      <c r="B389" s="20" t="s">
+        <v>193</v>
+      </c>
       <c r="C389" s="13"/>
       <c r="D389" s="39"/>
-      <c r="E389" s="9"/>
+      <c r="E389" s="9">
+        <f t="shared" si="10"/>
+        <v>262.93299999999999</v>
+      </c>
       <c r="F389" s="20"/>
       <c r="G389" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H389" s="39"/>
-      <c r="I389" s="9"/>
+      <c r="I389" s="9">
+        <f t="shared" si="11"/>
+        <v>473.75</v>
+      </c>
       <c r="J389" s="11"/>
-      <c r="K389" s="20"/>
+      <c r="K389" s="20" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
@@ -14424,17 +14432,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -14520,12 +14528,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
